--- a/projectExperience.xlsx
+++ b/projectExperience.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>居中问题，psd图一般做的1920的,目的是能适应大屏，但是大的部分只是作为背景，无论大屏还是小屏，中间主体部分是不会变的，要居中显示，所以中间部分一定要居中，横向不要有滚动条</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,18 @@
   </si>
   <si>
     <t>1.如果内部元素display为inline或者inline-block可以在父级直接用text-align:center让内部元素(内部元素不能是绝对定位)左右居中。2.可以给该元素（不能是绝对定位）用margin:0 auto;来实现左右居中。3.该元素是绝对定位，实现上下和左右都居中显示：用left:50%;top:50%;margin-left:-200px;margin:top:-200px;(margin-left和margin-top为该元素宽和高的一半)。4.该元素是绝对定位用css3来实现上下左右居中：left:50%;top:50%;transform:translate(-50%,-50%),但是这种居中的元素不能用来做3d变换（transform等）;这个方法还可以在当元素没有设置宽和高，当里面有内容填充（图片段落等）时增加宽高后也能上下左右居中，不用计算。5.该元素是绝对定位，并且必须要有宽度和高度，再：left:0;bottom:0;right:0;bottom:0;margin:auto;就可以实现左右上下居中（当然bottom可以设为其他值如:20px来调整位置）。但是不能像4一样自增长，必须设置宽和高。6.一个元素如果display为inline-block,使用margin:0 auto,并不能居中，可以用父级text-align:center居中。7.对于图片的居中方法：图片可以不给指定的宽度（也可以给高度，如果图片未知宽度可以这样居中），但是要：display:block;margin:0 auto;就能居中了。还有就是图片设为display：inline-block;将其父级加上：text-align:center即可。8.我们经常需要把icon放到一个i标签中，然后让这个icon上下居中，如果这个icon左边右边没有文字就直接把i的height设为i父级元素的高度，然后让i标签作为背景的icon定位居中background-position:center center;如果两边有文字或文字标签，那么要在刚才的基础上添加一句:vertical-align:bottom;(或者vertical-align:text-bottom);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林肯（http://biz.ifeng.com/auto/special/lincolnwap/）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金牛座（http://biz.ifeng.com/auto/special/24hourwap/）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.在form中，select中的文字要比input中默认会有4px 的padding，并且消除不了，所以如果需要文字左边留白一样，写的padding-left值input要比select 多4px。2.ie8不支持nth-of-type,ie8在form中，让文字上下居中，input可以直接用height:40px;line-height:40px;,但是select这样写会乱，所以select可以用上下的padding值让文字上下居中，用(height-fontsize)/2-3作为上下padding的值，line-height值和font-size相同-3是为了文字居中（有点小疑问）。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -431,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M92"/>
+  <dimension ref="A1:M107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76:M92"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93:M99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1851,24 +1863,259 @@
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
     </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A93" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A100" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="D76:M92"/>
-    <mergeCell ref="A76:C92"/>
-    <mergeCell ref="D29:M46"/>
-    <mergeCell ref="A29:C46"/>
+  <mergeCells count="20">
     <mergeCell ref="A1:C3"/>
     <mergeCell ref="D1:M3"/>
     <mergeCell ref="D4:M11"/>
     <mergeCell ref="A4:C11"/>
     <mergeCell ref="D12:M17"/>
     <mergeCell ref="A12:C17"/>
-    <mergeCell ref="A62:C75"/>
-    <mergeCell ref="D62:M75"/>
     <mergeCell ref="D18:M28"/>
     <mergeCell ref="A18:C28"/>
     <mergeCell ref="D47:M61"/>
     <mergeCell ref="A47:C61"/>
+    <mergeCell ref="A100:C107"/>
+    <mergeCell ref="D100:M107"/>
+    <mergeCell ref="A93:C99"/>
+    <mergeCell ref="D93:M99"/>
+    <mergeCell ref="D76:M92"/>
+    <mergeCell ref="A76:C92"/>
+    <mergeCell ref="D29:M46"/>
+    <mergeCell ref="A29:C46"/>
+    <mergeCell ref="A62:C75"/>
+    <mergeCell ref="D62:M75"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
